--- a/data/pca/factorExposure/factorExposure_2018-02-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0113507527834921</v>
+        <v>0.009488240086518088</v>
       </c>
       <c r="C2">
-        <v>-0.007486565064763824</v>
+        <v>-0.02321545781882771</v>
       </c>
       <c r="D2">
-        <v>-0.02200861675814056</v>
+        <v>0.02467181765269819</v>
       </c>
       <c r="E2">
-        <v>0.02679488442672943</v>
+        <v>0.01302897957175704</v>
       </c>
       <c r="F2">
-        <v>0.07603489146299189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.001540182830317507</v>
+      </c>
+      <c r="G2">
+        <v>-0.005298662593495484</v>
+      </c>
+      <c r="H2">
+        <v>-0.02966676705397908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0865603988535931</v>
+        <v>0.05289863645684433</v>
       </c>
       <c r="C3">
-        <v>-0.005086843995792996</v>
+        <v>-0.07364640206255589</v>
       </c>
       <c r="D3">
-        <v>0.009292631071127568</v>
+        <v>0.007532393117371794</v>
       </c>
       <c r="E3">
-        <v>0.1215931715881377</v>
+        <v>0.05931081451398652</v>
       </c>
       <c r="F3">
-        <v>0.28928249155629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05745504461737857</v>
+      </c>
+      <c r="G3">
+        <v>-0.04132489953111639</v>
+      </c>
+      <c r="H3">
+        <v>-0.1178217382353406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04405911637583645</v>
+        <v>0.03527886086741171</v>
       </c>
       <c r="C4">
-        <v>0.009533186314769912</v>
+        <v>-0.06477030789935836</v>
       </c>
       <c r="D4">
-        <v>-0.0249367453735258</v>
+        <v>0.01850459220853167</v>
       </c>
       <c r="E4">
-        <v>-0.0148697521968041</v>
+        <v>-0.007073173288914053</v>
       </c>
       <c r="F4">
-        <v>0.0655319319383274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03024862716892783</v>
+      </c>
+      <c r="G4">
+        <v>-0.04347886050943505</v>
+      </c>
+      <c r="H4">
+        <v>-0.02922086575707326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04306475866777857</v>
+        <v>0.01715290753517629</v>
       </c>
       <c r="C6">
-        <v>-0.005232651708238174</v>
+        <v>-0.0619647005824279</v>
       </c>
       <c r="D6">
-        <v>-0.03487133578671262</v>
+        <v>0.01362549297306398</v>
       </c>
       <c r="E6">
-        <v>-0.02038870752567402</v>
+        <v>-0.01153843051059894</v>
       </c>
       <c r="F6">
-        <v>0.03923231072722871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.006474669423751291</v>
+      </c>
+      <c r="G6">
+        <v>-0.0290987330984253</v>
+      </c>
+      <c r="H6">
+        <v>-0.0353416517277781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03942165783290631</v>
+        <v>0.004223359332854977</v>
       </c>
       <c r="C7">
-        <v>0.06707270049329661</v>
+        <v>-0.03751023090794719</v>
       </c>
       <c r="D7">
-        <v>-0.01057671903551459</v>
+        <v>0.01113757137595715</v>
       </c>
       <c r="E7">
-        <v>-0.009601724649899302</v>
+        <v>-0.02257149922705396</v>
       </c>
       <c r="F7">
-        <v>0.03449691394409362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.07453923795371148</v>
+      </c>
+      <c r="G7">
+        <v>-0.001943463038509417</v>
+      </c>
+      <c r="H7">
+        <v>-0.01520999329652873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.005063989020166704</v>
+        <v>-0.00568414319426707</v>
       </c>
       <c r="C8">
-        <v>0.008818466833467924</v>
+        <v>-0.004033063153090574</v>
       </c>
       <c r="D8">
-        <v>-0.02885980284505351</v>
+        <v>0.002021080343015489</v>
       </c>
       <c r="E8">
-        <v>-0.006930914903020645</v>
+        <v>0.001398057313714555</v>
       </c>
       <c r="F8">
-        <v>0.06301783203912863</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02028249391087131</v>
+      </c>
+      <c r="G8">
+        <v>-0.01484682549986315</v>
+      </c>
+      <c r="H8">
+        <v>-0.01844613068631171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03507791740194909</v>
+        <v>0.01590520866341637</v>
       </c>
       <c r="C9">
-        <v>0.007058316063571972</v>
+        <v>-0.04698688004936649</v>
       </c>
       <c r="D9">
-        <v>-0.02839950005785496</v>
+        <v>0.01336433099429411</v>
       </c>
       <c r="E9">
-        <v>0.01321616350784464</v>
+        <v>-0.004740227215618707</v>
       </c>
       <c r="F9">
-        <v>0.07023626507614271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02347371803205349</v>
+      </c>
+      <c r="G9">
+        <v>-0.01427859590756471</v>
+      </c>
+      <c r="H9">
+        <v>-0.03618917231040129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05190853695246646</v>
+        <v>0.129284636133755</v>
       </c>
       <c r="C10">
-        <v>-0.005367027987274208</v>
+        <v>0.151234128239726</v>
       </c>
       <c r="D10">
-        <v>0.1543493584211076</v>
+        <v>-0.02099223567588592</v>
       </c>
       <c r="E10">
-        <v>0.08081485965202444</v>
+        <v>0.03268203047750369</v>
       </c>
       <c r="F10">
-        <v>0.008530670588401311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03623174930842559</v>
+      </c>
+      <c r="G10">
+        <v>0.03081877885943762</v>
+      </c>
+      <c r="H10">
+        <v>0.003433792824694374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03154638760326</v>
+        <v>0.01373606375345652</v>
       </c>
       <c r="C11">
-        <v>-0.007874064625554128</v>
+        <v>-0.04923613407396996</v>
       </c>
       <c r="D11">
-        <v>-0.03893952524680561</v>
+        <v>-0.0004940946436988411</v>
       </c>
       <c r="E11">
-        <v>-0.02115528546088809</v>
+        <v>-0.01164228258730532</v>
       </c>
       <c r="F11">
-        <v>0.02830346314748631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.002015900455707974</v>
+      </c>
+      <c r="G11">
+        <v>-0.01296234238897821</v>
+      </c>
+      <c r="H11">
+        <v>-0.03649288796569138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04046803568030098</v>
+        <v>0.01732330496096154</v>
       </c>
       <c r="C12">
-        <v>-0.002796851517455571</v>
+        <v>-0.04626359614895467</v>
       </c>
       <c r="D12">
-        <v>-0.03428276291329775</v>
+        <v>0.003630052665229495</v>
       </c>
       <c r="E12">
-        <v>-0.03298201025167612</v>
+        <v>-0.01769191066941608</v>
       </c>
       <c r="F12">
-        <v>0.01001495582566658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01359859254721126</v>
+      </c>
+      <c r="G12">
+        <v>-0.006648652648823544</v>
+      </c>
+      <c r="H12">
+        <v>-0.01501702473194256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01843843045209225</v>
+        <v>0.01247573904472607</v>
       </c>
       <c r="C13">
-        <v>-0.01171271932169824</v>
+        <v>-0.02373401739556144</v>
       </c>
       <c r="D13">
-        <v>-0.001586053020796347</v>
+        <v>0.02111074005848798</v>
       </c>
       <c r="E13">
-        <v>0.01383890942618633</v>
+        <v>0.0133912304176403</v>
       </c>
       <c r="F13">
-        <v>0.06327768291418545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.00769713659483427</v>
+      </c>
+      <c r="G13">
+        <v>-0.02924051582112373</v>
+      </c>
+      <c r="H13">
+        <v>-0.04841332974169926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02298263186325566</v>
+        <v>0.003147432300337751</v>
       </c>
       <c r="C14">
-        <v>0.01442369495785217</v>
+        <v>-0.0206550614750548</v>
       </c>
       <c r="D14">
-        <v>-0.008130403409100647</v>
+        <v>0.007089213946971016</v>
       </c>
       <c r="E14">
-        <v>-0.003416451278245952</v>
+        <v>-0.009389621185169516</v>
       </c>
       <c r="F14">
-        <v>0.04587297843505458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03192000635413668</v>
+      </c>
+      <c r="G14">
+        <v>-0.009293553385531067</v>
+      </c>
+      <c r="H14">
+        <v>-0.009819570206175212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03013341204061344</v>
+        <v>0.01363009161651259</v>
       </c>
       <c r="C16">
-        <v>-0.003213347691286262</v>
+        <v>-0.04222448661437848</v>
       </c>
       <c r="D16">
-        <v>-0.03929558847235166</v>
+        <v>-0.0005924934664669361</v>
       </c>
       <c r="E16">
-        <v>-0.02222962544864132</v>
+        <v>-0.01010800045850566</v>
       </c>
       <c r="F16">
-        <v>0.03466821651161406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.009164902078933675</v>
+      </c>
+      <c r="G16">
+        <v>-0.01202163689261576</v>
+      </c>
+      <c r="H16">
+        <v>-0.02608670270973594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04296403121279091</v>
+        <v>0.01883989450889998</v>
       </c>
       <c r="C19">
-        <v>-0.003915014276111151</v>
+        <v>-0.0449049387943438</v>
       </c>
       <c r="D19">
-        <v>-0.02391918506083902</v>
+        <v>0.01104345489180708</v>
       </c>
       <c r="E19">
-        <v>-0.0197484496169268</v>
+        <v>0.01220346755571093</v>
       </c>
       <c r="F19">
-        <v>0.09900903600547047</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02920661647593759</v>
+      </c>
+      <c r="G19">
+        <v>-0.04227395653351461</v>
+      </c>
+      <c r="H19">
+        <v>-0.04781182721355547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0006154881200106632</v>
+        <v>1.576681092160654e-05</v>
       </c>
       <c r="C20">
-        <v>0.01062414101187579</v>
+        <v>-0.01987442535167292</v>
       </c>
       <c r="D20">
-        <v>0.001546960654574584</v>
+        <v>0.01086540099675025</v>
       </c>
       <c r="E20">
-        <v>0.0009702031663232003</v>
+        <v>0.009291000680150414</v>
       </c>
       <c r="F20">
-        <v>0.04575343287892852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02138657710753012</v>
+      </c>
+      <c r="G20">
+        <v>-0.02051388694413212</v>
+      </c>
+      <c r="H20">
+        <v>-0.01968746697034985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0370876834214288</v>
+        <v>0.003189577502784042</v>
       </c>
       <c r="C21">
-        <v>0.01857925925044417</v>
+        <v>-0.01996947826189898</v>
       </c>
       <c r="D21">
-        <v>-0.02017053522171168</v>
+        <v>0.01393319969745616</v>
       </c>
       <c r="E21">
-        <v>0.0002789237514929356</v>
+        <v>0.01093432763209712</v>
       </c>
       <c r="F21">
-        <v>0.0354097857564323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03987605255821763</v>
+      </c>
+      <c r="G21">
+        <v>-0.005636965017612173</v>
+      </c>
+      <c r="H21">
+        <v>-0.03152352542570334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02599883968241058</v>
+        <v>0.007888470204082714</v>
       </c>
       <c r="C24">
-        <v>-0.003826366809095154</v>
+        <v>-0.04112510212959626</v>
       </c>
       <c r="D24">
-        <v>-0.02763802063984956</v>
+        <v>0.004506515235556347</v>
       </c>
       <c r="E24">
-        <v>-0.01804039599851555</v>
+        <v>-0.01473187837496547</v>
       </c>
       <c r="F24">
-        <v>0.02673399357606947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.005402013925814824</v>
+      </c>
+      <c r="G24">
+        <v>-0.009299974615933832</v>
+      </c>
+      <c r="H24">
+        <v>-0.03106474525238853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03813141299079383</v>
+        <v>0.02306871190332882</v>
       </c>
       <c r="C25">
-        <v>-0.006349817467093131</v>
+        <v>-0.05266049415131826</v>
       </c>
       <c r="D25">
-        <v>-0.03201027890138865</v>
+        <v>0.007871452322395263</v>
       </c>
       <c r="E25">
-        <v>-0.01018218993069929</v>
+        <v>-0.02210641527088835</v>
       </c>
       <c r="F25">
-        <v>0.04089459532677597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01009649290965158</v>
+      </c>
+      <c r="G25">
+        <v>-0.01693079883223843</v>
+      </c>
+      <c r="H25">
+        <v>-0.02735049438349165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01648235563580281</v>
+        <v>0.002670568291120366</v>
       </c>
       <c r="C26">
-        <v>0.007631184826433765</v>
+        <v>-0.004758781096796554</v>
       </c>
       <c r="D26">
-        <v>-0.01454228911950368</v>
+        <v>0.02298616286455228</v>
       </c>
       <c r="E26">
-        <v>0.02522131660807439</v>
+        <v>-0.003299052446624562</v>
       </c>
       <c r="F26">
-        <v>0.04222863573493108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02167400213615824</v>
+      </c>
+      <c r="G26">
+        <v>0.002341896205880575</v>
+      </c>
+      <c r="H26">
+        <v>-0.01148237097443881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01747388824663709</v>
+        <v>0.0059730353294244</v>
       </c>
       <c r="C27">
-        <v>0.005063519552496714</v>
+        <v>-0.002999606439396561</v>
       </c>
       <c r="D27">
-        <v>0.01000532828610834</v>
+        <v>-0.001363285529001206</v>
       </c>
       <c r="E27">
-        <v>-0.0154460655595672</v>
+        <v>-0.001285885452677035</v>
       </c>
       <c r="F27">
-        <v>0.02290841862062358</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.01227896741909567</v>
+      </c>
+      <c r="G27">
+        <v>-0.006564554998916731</v>
+      </c>
+      <c r="H27">
+        <v>0.004869984962028895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09109877759697828</v>
+        <v>0.179954898695498</v>
       </c>
       <c r="C28">
-        <v>-0.01372163074832104</v>
+        <v>0.189562525539147</v>
       </c>
       <c r="D28">
-        <v>0.2142909763386769</v>
+        <v>-0.01495325619970023</v>
       </c>
       <c r="E28">
-        <v>0.1056406126553</v>
+        <v>0.02610850496430139</v>
       </c>
       <c r="F28">
-        <v>-0.004963164269895746</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04450660388515599</v>
+      </c>
+      <c r="G28">
+        <v>0.02916988896705804</v>
+      </c>
+      <c r="H28">
+        <v>0.002039768638396616</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02509833029544409</v>
+        <v>0.009571196302107839</v>
       </c>
       <c r="C29">
-        <v>0.01138671438387371</v>
+        <v>-0.01997218414580212</v>
       </c>
       <c r="D29">
-        <v>-0.007643943923175968</v>
+        <v>0.005780021110997945</v>
       </c>
       <c r="E29">
-        <v>-0.005337666955535855</v>
+        <v>-0.008633878188751229</v>
       </c>
       <c r="F29">
-        <v>0.04392664553799489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0279268162077698</v>
+      </c>
+      <c r="G29">
+        <v>-0.008819716352978712</v>
+      </c>
+      <c r="H29">
+        <v>-0.001702776768878705</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04645175157465999</v>
+        <v>0.02515130007496562</v>
       </c>
       <c r="C30">
-        <v>-0.05304454758560702</v>
+        <v>-0.08792917395848637</v>
       </c>
       <c r="D30">
-        <v>-0.05658996262455158</v>
+        <v>0.02298927813227091</v>
       </c>
       <c r="E30">
-        <v>0.004130739915963804</v>
+        <v>-0.001471617774970595</v>
       </c>
       <c r="F30">
-        <v>0.08740913405304147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02186798317341102</v>
+      </c>
+      <c r="G30">
+        <v>-0.04037330746992505</v>
+      </c>
+      <c r="H30">
+        <v>-0.05272588411577796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05237512902383261</v>
+        <v>0.03175051217000642</v>
       </c>
       <c r="C31">
-        <v>0.005211374542456664</v>
+        <v>-0.02844543204898375</v>
       </c>
       <c r="D31">
-        <v>-0.0116082573673015</v>
+        <v>0.0007413445359622513</v>
       </c>
       <c r="E31">
-        <v>-0.01464101470602537</v>
+        <v>-0.01228295951518728</v>
       </c>
       <c r="F31">
-        <v>0.0308117841354804</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02549851633100395</v>
+      </c>
+      <c r="G31">
+        <v>0.009109200878493567</v>
+      </c>
+      <c r="H31">
+        <v>0.01168008538687799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01445157091417619</v>
+        <v>0.006847480958016787</v>
       </c>
       <c r="C32">
-        <v>0.0325081736561167</v>
+        <v>-0.01772782007234914</v>
       </c>
       <c r="D32">
-        <v>-0.02662489521938246</v>
+        <v>-0.008497697602022796</v>
       </c>
       <c r="E32">
-        <v>-0.0165974454507253</v>
+        <v>0.001432093598512845</v>
       </c>
       <c r="F32">
-        <v>0.06036578032347296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0393344294040196</v>
+      </c>
+      <c r="G32">
+        <v>-0.05820566654136951</v>
+      </c>
+      <c r="H32">
+        <v>-0.0656040943329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04107037659807417</v>
+        <v>0.01330174477825143</v>
       </c>
       <c r="C33">
-        <v>-0.02349686013509544</v>
+        <v>-0.04471007245964297</v>
       </c>
       <c r="D33">
-        <v>-0.03928828815402223</v>
+        <v>0.01160470139658336</v>
       </c>
       <c r="E33">
-        <v>0.009400658182393459</v>
+        <v>0.006776768678874578</v>
       </c>
       <c r="F33">
-        <v>0.05617276085311605</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.008057595274157224</v>
+      </c>
+      <c r="G33">
+        <v>0.005015307440877506</v>
+      </c>
+      <c r="H33">
+        <v>-0.03785736375129729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03178437383959187</v>
+        <v>0.02501757597721709</v>
       </c>
       <c r="C34">
-        <v>0.005466650278213444</v>
+        <v>-0.05180786910169293</v>
       </c>
       <c r="D34">
-        <v>-0.03850530243506903</v>
+        <v>-0.008758494317406509</v>
       </c>
       <c r="E34">
-        <v>-0.0278033415830245</v>
+        <v>-0.02581097262896239</v>
       </c>
       <c r="F34">
-        <v>0.03547382471112662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01357575936337268</v>
+      </c>
+      <c r="G34">
+        <v>-0.01508582453403697</v>
+      </c>
+      <c r="H34">
+        <v>-0.02859492298399439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01828080459103449</v>
+        <v>0.00842436424299798</v>
       </c>
       <c r="C36">
-        <v>0.008677686877224606</v>
+        <v>-0.0030098258945212</v>
       </c>
       <c r="D36">
-        <v>0.0001412117789854889</v>
+        <v>0.009993998861375957</v>
       </c>
       <c r="E36">
-        <v>0.002568546467551225</v>
+        <v>-0.002731369199550845</v>
       </c>
       <c r="F36">
-        <v>0.02892121795408431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01844601369429277</v>
+      </c>
+      <c r="G36">
+        <v>0.002179587251855775</v>
+      </c>
+      <c r="H36">
+        <v>-0.006920325086047745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02140534714154676</v>
+        <v>0.02603542552599953</v>
       </c>
       <c r="C38">
-        <v>-0.001314870045698027</v>
+        <v>-0.01916193140202027</v>
       </c>
       <c r="D38">
-        <v>0.003396547932442921</v>
+        <v>-0.01067093209678168</v>
       </c>
       <c r="E38">
-        <v>0.03084038085363466</v>
+        <v>-0.007803264758493154</v>
       </c>
       <c r="F38">
-        <v>0.03630339057133814</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01472991746033718</v>
+      </c>
+      <c r="G38">
+        <v>-0.006304827589188234</v>
+      </c>
+      <c r="H38">
+        <v>-0.01651856565719043</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02674100006242702</v>
+        <v>-0.0001365217980043103</v>
       </c>
       <c r="C39">
-        <v>0.002389969478169648</v>
+        <v>-0.08446934577427939</v>
       </c>
       <c r="D39">
-        <v>-0.05197904490149274</v>
+        <v>0.009774468706020735</v>
       </c>
       <c r="E39">
-        <v>-0.009219595606852014</v>
+        <v>-0.01092516635765116</v>
       </c>
       <c r="F39">
-        <v>0.05247701414207187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.004849976605569608</v>
+      </c>
+      <c r="G39">
+        <v>-0.01936686282895083</v>
+      </c>
+      <c r="H39">
+        <v>-0.06172066459270795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0180796567773693</v>
+        <v>0.01628302060060445</v>
       </c>
       <c r="C40">
-        <v>-0.03560088123922319</v>
+        <v>-0.02461372462649121</v>
       </c>
       <c r="D40">
-        <v>-0.02158525265906056</v>
+        <v>0.008877569176886112</v>
       </c>
       <c r="E40">
-        <v>-0.01864710715313594</v>
+        <v>-0.0002645033665436588</v>
       </c>
       <c r="F40">
-        <v>0.03704681760457341</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0190504034403069</v>
+      </c>
+      <c r="G40">
+        <v>-0.02337389278875645</v>
+      </c>
+      <c r="H40">
+        <v>-0.03455291256197127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008619652090351381</v>
+        <v>0.01038354287692353</v>
       </c>
       <c r="C41">
-        <v>0.00331525306669066</v>
+        <v>0.009987266312755832</v>
       </c>
       <c r="D41">
-        <v>0.004259246553937743</v>
+        <v>0.002713011638054221</v>
       </c>
       <c r="E41">
-        <v>0.0205732688239716</v>
+        <v>-0.004230196457658438</v>
       </c>
       <c r="F41">
-        <v>-0.004292513167336082</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.009901568149114798</v>
+      </c>
+      <c r="G41">
+        <v>0.01385118213790721</v>
+      </c>
+      <c r="H41">
+        <v>-0.0003656888701379145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2709993818747868</v>
+        <v>0.06690744707286603</v>
       </c>
       <c r="C42">
-        <v>-0.1516823991901653</v>
+        <v>-0.1832795376001624</v>
       </c>
       <c r="D42">
-        <v>-0.4139844392113967</v>
+        <v>0.1214309693569132</v>
       </c>
       <c r="E42">
-        <v>0.645365119352291</v>
+        <v>0.1336815822586197</v>
       </c>
       <c r="F42">
-        <v>-0.5118407130754763</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1625180298395076</v>
+      </c>
+      <c r="G42">
+        <v>0.9233324985021194</v>
+      </c>
+      <c r="H42">
+        <v>-0.1707491957014186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01536380718842771</v>
+        <v>0.01371184145058026</v>
       </c>
       <c r="C43">
-        <v>-0.001230605949619825</v>
+        <v>0.005932124062123731</v>
       </c>
       <c r="D43">
-        <v>0.002124088686208166</v>
+        <v>0.003023348192555415</v>
       </c>
       <c r="E43">
-        <v>0.01530728947507685</v>
+        <v>0.0008706279728221878</v>
       </c>
       <c r="F43">
-        <v>0.02229213868104362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01065261335730214</v>
+      </c>
+      <c r="G43">
+        <v>0.009465483478674836</v>
+      </c>
+      <c r="H43">
+        <v>-0.006909093311887403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01985338224708782</v>
+        <v>0.002518914263493428</v>
       </c>
       <c r="C44">
-        <v>0.01948381484245953</v>
+        <v>-0.04222238132791905</v>
       </c>
       <c r="D44">
-        <v>-0.0228863173981892</v>
+        <v>0.005085002150471192</v>
       </c>
       <c r="E44">
-        <v>0.02325086569509742</v>
+        <v>0.005296582491672794</v>
       </c>
       <c r="F44">
-        <v>0.07546814825613425</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03305077449673716</v>
+      </c>
+      <c r="G44">
+        <v>-0.004196731905760615</v>
+      </c>
+      <c r="H44">
+        <v>-0.05125601263745988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02214196307762856</v>
+        <v>0.0007095842497648186</v>
       </c>
       <c r="C46">
-        <v>0.00381593122299587</v>
+        <v>-0.01192025232294381</v>
       </c>
       <c r="D46">
-        <v>-0.03501605214593674</v>
+        <v>0.01083656398291121</v>
       </c>
       <c r="E46">
-        <v>-0.00528625516019167</v>
+        <v>-0.0006315118768402396</v>
       </c>
       <c r="F46">
-        <v>0.07265758784234787</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.02103889063110988</v>
+      </c>
+      <c r="G46">
+        <v>-0.003270078022668595</v>
+      </c>
+      <c r="H46">
+        <v>-0.006217651457086782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07556357582514744</v>
+        <v>0.05022779108553527</v>
       </c>
       <c r="C47">
-        <v>-0.01529931215838974</v>
+        <v>-0.06263608402013431</v>
       </c>
       <c r="D47">
-        <v>-0.01366907887800166</v>
+        <v>-0.008170993659764446</v>
       </c>
       <c r="E47">
-        <v>-0.02960669912413627</v>
+        <v>-0.01391915790388903</v>
       </c>
       <c r="F47">
-        <v>0.007263359818515458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01891284707999784</v>
+      </c>
+      <c r="G47">
+        <v>0.01311628682689524</v>
+      </c>
+      <c r="H47">
+        <v>0.04416244978488236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02496943223885012</v>
+        <v>0.01090801733292541</v>
       </c>
       <c r="C48">
-        <v>0.002860385760652543</v>
+        <v>-0.01326057693329246</v>
       </c>
       <c r="D48">
-        <v>-0.009279803755088233</v>
+        <v>0.0003706591453476064</v>
       </c>
       <c r="E48">
-        <v>-0.0004962631064536704</v>
+        <v>-0.003882453656980303</v>
       </c>
       <c r="F48">
-        <v>0.02911120769844618</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01666554878917524</v>
+      </c>
+      <c r="G48">
+        <v>0.0002858295892312495</v>
+      </c>
+      <c r="H48">
+        <v>-0.008652718747540021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08622886665012694</v>
+        <v>0.05670860530349107</v>
       </c>
       <c r="C50">
-        <v>0.01246001729988597</v>
+        <v>-0.05928947718432135</v>
       </c>
       <c r="D50">
-        <v>-0.03325574298242831</v>
+        <v>-0.007013416207910552</v>
       </c>
       <c r="E50">
-        <v>-0.02378655826238704</v>
+        <v>-0.01545123531280193</v>
       </c>
       <c r="F50">
-        <v>0.02399667441927975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.04708992151931394</v>
+      </c>
+      <c r="G50">
+        <v>0.0132947027072917</v>
+      </c>
+      <c r="H50">
+        <v>0.03285087403755597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02239477615209168</v>
+        <v>0.008915850703780016</v>
       </c>
       <c r="C51">
-        <v>0.0120686518673997</v>
+        <v>-0.01595374380142544</v>
       </c>
       <c r="D51">
-        <v>0.01375596070147787</v>
+        <v>0.006160780662508717</v>
       </c>
       <c r="E51">
-        <v>0.02568064539460278</v>
+        <v>-0.008479168843442688</v>
       </c>
       <c r="F51">
-        <v>0.08394796052106729</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03148243611256156</v>
+      </c>
+      <c r="G51">
+        <v>-0.006272362603752918</v>
+      </c>
+      <c r="H51">
+        <v>-0.03348643742612619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09872912383305349</v>
+        <v>0.06833173014019581</v>
       </c>
       <c r="C53">
-        <v>-0.01929792579118153</v>
+        <v>-0.09282558801623406</v>
       </c>
       <c r="D53">
-        <v>-0.03664295539625825</v>
+        <v>-0.009223625984236409</v>
       </c>
       <c r="E53">
-        <v>-0.06732909448537888</v>
+        <v>-0.03687863241330135</v>
       </c>
       <c r="F53">
-        <v>-0.01746999823267862</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01048290406380365</v>
+      </c>
+      <c r="G53">
+        <v>0.01416898894963408</v>
+      </c>
+      <c r="H53">
+        <v>0.05060563281425071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02740242582516024</v>
+        <v>0.02026233585324545</v>
       </c>
       <c r="C54">
-        <v>0.01051588388872265</v>
+        <v>0.0003110940741961286</v>
       </c>
       <c r="D54">
-        <v>0.007499694768135736</v>
+        <v>-0.005556517187333162</v>
       </c>
       <c r="E54">
-        <v>-0.006734076749276925</v>
+        <v>0.001115246687911362</v>
       </c>
       <c r="F54">
-        <v>0.02990858156002367</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.02897680519875911</v>
+      </c>
+      <c r="G54">
+        <v>-0.003238977313583285</v>
+      </c>
+      <c r="H54">
+        <v>0.001003098003747022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08260400020637085</v>
+        <v>0.04997260469468569</v>
       </c>
       <c r="C55">
-        <v>-0.01879099153294345</v>
+        <v>-0.08492853599885557</v>
       </c>
       <c r="D55">
-        <v>-0.05880764557372111</v>
+        <v>-0.007253529335426938</v>
       </c>
       <c r="E55">
-        <v>-0.0429127041091146</v>
+        <v>-0.02687711860764517</v>
       </c>
       <c r="F55">
-        <v>-0.01630634108934835</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.005890255380537088</v>
+      </c>
+      <c r="G55">
+        <v>0.01818030375022001</v>
+      </c>
+      <c r="H55">
+        <v>0.04566473177012611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1330954902448348</v>
+        <v>0.1060508462518369</v>
       </c>
       <c r="C56">
-        <v>-0.03971191988928078</v>
+        <v>-0.1292073984509997</v>
       </c>
       <c r="D56">
-        <v>-0.0401949957054515</v>
+        <v>-0.01955735231573169</v>
       </c>
       <c r="E56">
-        <v>-0.09794314151092515</v>
+        <v>-0.04399678906337742</v>
       </c>
       <c r="F56">
-        <v>-0.04617273133255434</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01059966179917304</v>
+      </c>
+      <c r="G56">
+        <v>0.007588600512037661</v>
+      </c>
+      <c r="H56">
+        <v>0.09195977761291668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04341418393473505</v>
+        <v>0.01932690338501999</v>
       </c>
       <c r="C57">
-        <v>-0.008175685607299598</v>
+        <v>-0.0272013682754034</v>
       </c>
       <c r="D57">
-        <v>-0.02114497290967559</v>
+        <v>0.02289096343435122</v>
       </c>
       <c r="E57">
-        <v>0.04190737565038148</v>
+        <v>0.02923251902994717</v>
       </c>
       <c r="F57">
-        <v>0.04746885833093675</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02614353193770941</v>
+      </c>
+      <c r="G57">
+        <v>-0.01398851241917016</v>
+      </c>
+      <c r="H57">
+        <v>-0.05060745911861166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1762980088896848</v>
+        <v>0.06438112714460745</v>
       </c>
       <c r="C58">
-        <v>-0.1610629770904632</v>
+        <v>-0.20176451978764</v>
       </c>
       <c r="D58">
-        <v>-0.2118942890500912</v>
+        <v>0.01379199765904046</v>
       </c>
       <c r="E58">
-        <v>0.2417632067581229</v>
+        <v>0.9427879122033059</v>
       </c>
       <c r="F58">
-        <v>0.5781774104898852</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.09372149945053954</v>
+      </c>
+      <c r="G58">
+        <v>-0.1464661216489091</v>
+      </c>
+      <c r="H58">
+        <v>0.1098302452575914</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08311690384338952</v>
+        <v>0.2029804491285804</v>
       </c>
       <c r="C59">
-        <v>-0.03879769881612299</v>
+        <v>0.1733857718758834</v>
       </c>
       <c r="D59">
-        <v>0.1885911163766643</v>
+        <v>-0.0233684877956252</v>
       </c>
       <c r="E59">
-        <v>0.07656784494912394</v>
+        <v>0.02439010006180722</v>
       </c>
       <c r="F59">
-        <v>0.04265488422340658</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01441094437602889</v>
+      </c>
+      <c r="G59">
+        <v>-0.0006026185804446646</v>
+      </c>
+      <c r="H59">
+        <v>-0.0131698224923582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1722763582548716</v>
+        <v>0.2483192858381773</v>
       </c>
       <c r="C60">
-        <v>-0.08196229001502273</v>
+        <v>-0.1033086041667788</v>
       </c>
       <c r="D60">
-        <v>0.01044269472136694</v>
+        <v>-0.009848856888422989</v>
       </c>
       <c r="E60">
-        <v>0.05239368967283521</v>
+        <v>-0.03698530100531457</v>
       </c>
       <c r="F60">
-        <v>0.1377888255844536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1075036332858419</v>
+      </c>
+      <c r="G60">
+        <v>-0.1523656648226954</v>
+      </c>
+      <c r="H60">
+        <v>-0.3786383930775675</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02891475956993324</v>
+        <v>0.009850468109211918</v>
       </c>
       <c r="C61">
-        <v>-0.002489359747385109</v>
+        <v>-0.06471219128027293</v>
       </c>
       <c r="D61">
-        <v>-0.04191670561467406</v>
+        <v>0.002713514437389383</v>
       </c>
       <c r="E61">
-        <v>-0.00751286582559297</v>
+        <v>-0.01139756186377102</v>
       </c>
       <c r="F61">
-        <v>0.02922465194121103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.008418745420104455</v>
+      </c>
+      <c r="G61">
+        <v>-0.02090254464066681</v>
+      </c>
+      <c r="H61">
+        <v>-0.04368673889102091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01801524269553464</v>
+        <v>0.00546377367051095</v>
       </c>
       <c r="C63">
-        <v>0.006257132950198372</v>
+        <v>-0.02251232604579235</v>
       </c>
       <c r="D63">
-        <v>-0.01933822685194797</v>
+        <v>0.006573594921944448</v>
       </c>
       <c r="E63">
-        <v>-0.005979952903707009</v>
+        <v>-0.01769364731813811</v>
       </c>
       <c r="F63">
-        <v>0.01231617643819037</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0197661077177295</v>
+      </c>
+      <c r="G63">
+        <v>-0.004167577431077727</v>
+      </c>
+      <c r="H63">
+        <v>-0.002544038264745008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04327853434557343</v>
+        <v>0.03513750124339532</v>
       </c>
       <c r="C64">
-        <v>-0.001210603576477902</v>
+        <v>-0.04333238674534411</v>
       </c>
       <c r="D64">
-        <v>-0.02401905233567718</v>
+        <v>0.00143899334595822</v>
       </c>
       <c r="E64">
-        <v>-0.008052482260028896</v>
+        <v>-0.02329665396922476</v>
       </c>
       <c r="F64">
-        <v>0.03159842770845459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.00723480603504127</v>
+      </c>
+      <c r="G64">
+        <v>0.005356080702009448</v>
+      </c>
+      <c r="H64">
+        <v>-0.02872422934219598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04729902530658415</v>
+        <v>0.04615738946313454</v>
       </c>
       <c r="C65">
-        <v>-0.005670746200626535</v>
+        <v>-0.08543756802527964</v>
       </c>
       <c r="D65">
-        <v>-0.03662379979410379</v>
+        <v>0.0117299660539381</v>
       </c>
       <c r="E65">
-        <v>-0.02729791670320964</v>
+        <v>-0.02945813042026341</v>
       </c>
       <c r="F65">
-        <v>0.03476503166522054</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.008962032552194627</v>
+      </c>
+      <c r="G65">
+        <v>-0.04564227047806417</v>
+      </c>
+      <c r="H65">
+        <v>-0.05120724545086403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04227221597932848</v>
+        <v>0.00999276668737663</v>
       </c>
       <c r="C66">
-        <v>-0.01829662450688284</v>
+        <v>-0.1192364645312408</v>
       </c>
       <c r="D66">
-        <v>-0.06146215077740869</v>
+        <v>0.007203683940998237</v>
       </c>
       <c r="E66">
-        <v>-0.04594239546113469</v>
+        <v>-0.01710847403298539</v>
       </c>
       <c r="F66">
-        <v>0.05821852475723207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.008549116613714967</v>
+      </c>
+      <c r="G66">
+        <v>-0.04573444159545825</v>
+      </c>
+      <c r="H66">
+        <v>-0.06208557788744693</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03525916347160847</v>
+        <v>0.0490191488018472</v>
       </c>
       <c r="C67">
-        <v>-0.006835097052161326</v>
+        <v>-0.02919422525199279</v>
       </c>
       <c r="D67">
-        <v>0.01066942133818668</v>
+        <v>-0.01027783662627234</v>
       </c>
       <c r="E67">
-        <v>0.02069103452951266</v>
+        <v>-0.01494415202728084</v>
       </c>
       <c r="F67">
-        <v>0.02353213638467707</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01416569635435428</v>
+      </c>
+      <c r="G67">
+        <v>-0.01263389695101551</v>
+      </c>
+      <c r="H67">
+        <v>-0.01413230630162302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08875980058312388</v>
+        <v>0.1992985140529136</v>
       </c>
       <c r="C68">
-        <v>-0.03642253461140149</v>
+        <v>0.2134235663155301</v>
       </c>
       <c r="D68">
-        <v>0.2027588782798712</v>
+        <v>-0.003607411000013385</v>
       </c>
       <c r="E68">
-        <v>0.09191541084493005</v>
+        <v>0.03847263835597654</v>
       </c>
       <c r="F68">
-        <v>0.02131595280331452</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02355992338215577</v>
+      </c>
+      <c r="G68">
+        <v>0.04063566475044193</v>
+      </c>
+      <c r="H68">
+        <v>0.02131018765268479</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06684039722224053</v>
+        <v>0.05352927377894095</v>
       </c>
       <c r="C69">
-        <v>-0.01543446233783452</v>
+        <v>-0.06151828721774762</v>
       </c>
       <c r="D69">
-        <v>-0.0180483007706992</v>
+        <v>-0.01295787996247315</v>
       </c>
       <c r="E69">
-        <v>-0.03610487898866899</v>
+        <v>-0.02913770874074252</v>
       </c>
       <c r="F69">
-        <v>0.02054209061819064</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.009041966532470174</v>
+      </c>
+      <c r="G69">
+        <v>-0.00438054419117415</v>
+      </c>
+      <c r="H69">
+        <v>0.01788651987478263</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08968635958008228</v>
+        <v>0.1803853419595332</v>
       </c>
       <c r="C71">
-        <v>-0.021435649021495</v>
+        <v>0.1735438279366549</v>
       </c>
       <c r="D71">
-        <v>0.1972125796001356</v>
+        <v>-0.01053036511292258</v>
       </c>
       <c r="E71">
-        <v>0.1279496043139768</v>
+        <v>0.04475262275088311</v>
       </c>
       <c r="F71">
-        <v>0.002383421642582505</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03889280265609035</v>
+      </c>
+      <c r="G71">
+        <v>0.04604227587671472</v>
+      </c>
+      <c r="H71">
+        <v>0.003307209077968898</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.102231627670955</v>
+        <v>0.05633924769655552</v>
       </c>
       <c r="C72">
-        <v>-0.03097232579621679</v>
+        <v>-0.098687573027522</v>
       </c>
       <c r="D72">
-        <v>-0.0807721171213053</v>
+        <v>-0.01473874998422455</v>
       </c>
       <c r="E72">
-        <v>-0.06429356453512583</v>
+        <v>-0.03729579655304396</v>
       </c>
       <c r="F72">
-        <v>0.1360486374326949</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0172708954604224</v>
+      </c>
+      <c r="G72">
+        <v>-0.05740624983453272</v>
+      </c>
+      <c r="H72">
+        <v>-0.05668998881560323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2115204253229022</v>
+        <v>0.3236031303072183</v>
       </c>
       <c r="C73">
-        <v>-0.1374045340472411</v>
+        <v>-0.1645581831257856</v>
       </c>
       <c r="D73">
-        <v>-0.01647056378743951</v>
+        <v>-0.008290502044964641</v>
       </c>
       <c r="E73">
-        <v>0.09728302296847365</v>
+        <v>-0.03567515324111838</v>
       </c>
       <c r="F73">
-        <v>0.1469192612113594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1558073228629651</v>
+      </c>
+      <c r="G73">
+        <v>-0.1698740368704107</v>
+      </c>
+      <c r="H73">
+        <v>-0.4858261802096766</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1316670579672101</v>
+        <v>0.09662861504714566</v>
       </c>
       <c r="C74">
-        <v>-0.03526426631324633</v>
+        <v>-0.1353390514208578</v>
       </c>
       <c r="D74">
-        <v>-0.03945474660676636</v>
+        <v>-0.01810570209300039</v>
       </c>
       <c r="E74">
-        <v>-0.08259119786063385</v>
+        <v>-0.04841076214168751</v>
       </c>
       <c r="F74">
-        <v>-0.04577144354458491</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.009556581970867332</v>
+      </c>
+      <c r="G74">
+        <v>0.009306153319692097</v>
+      </c>
+      <c r="H74">
+        <v>0.06664793368753183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2281029668128783</v>
+        <v>0.2109864019319503</v>
       </c>
       <c r="C75">
-        <v>-0.07664501566322866</v>
+        <v>-0.2190400337702568</v>
       </c>
       <c r="D75">
-        <v>-0.03411540388948858</v>
+        <v>-0.04111311655353285</v>
       </c>
       <c r="E75">
-        <v>-0.1979132765963103</v>
+        <v>-0.06940232426305278</v>
       </c>
       <c r="F75">
-        <v>-0.05237340145097111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02225194841115466</v>
+      </c>
+      <c r="G75">
+        <v>-0.002928730549266502</v>
+      </c>
+      <c r="H75">
+        <v>0.1909795891862318</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2619456955188607</v>
+        <v>0.140036683172675</v>
       </c>
       <c r="C76">
-        <v>-0.06310122225814231</v>
+        <v>-0.1881179591977896</v>
       </c>
       <c r="D76">
-        <v>-0.05266979256476886</v>
+        <v>-0.03305484485768301</v>
       </c>
       <c r="E76">
-        <v>-0.2539259166950987</v>
+        <v>-0.0853579277682254</v>
       </c>
       <c r="F76">
-        <v>-0.1089849579320022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01084378156188055</v>
+      </c>
+      <c r="G76">
+        <v>0.008425710453594842</v>
+      </c>
+      <c r="H76">
+        <v>0.158898329925926</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09426922631397169</v>
+        <v>0.04479706420132447</v>
       </c>
       <c r="C77">
-        <v>-0.03506793479911368</v>
+        <v>-0.0827759978427525</v>
       </c>
       <c r="D77">
-        <v>-0.08350302734282526</v>
+        <v>0.009831278373026206</v>
       </c>
       <c r="E77">
-        <v>0.0683574165383625</v>
+        <v>0.02525950555412528</v>
       </c>
       <c r="F77">
-        <v>0.06274868850961333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01530716759405275</v>
+      </c>
+      <c r="G77">
+        <v>0.02288423498035004</v>
+      </c>
+      <c r="H77">
+        <v>-0.004352893383422524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05030408261461404</v>
+        <v>0.02485988076460632</v>
       </c>
       <c r="C78">
-        <v>0.001813137693819198</v>
+        <v>-0.07318883126785097</v>
       </c>
       <c r="D78">
-        <v>-0.09179008335595699</v>
+        <v>0.003334759416537656</v>
       </c>
       <c r="E78">
-        <v>-0.00914861120277289</v>
+        <v>0.0008255602958630742</v>
       </c>
       <c r="F78">
-        <v>0.09460635881248432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01264888601870122</v>
+      </c>
+      <c r="G78">
+        <v>-0.02639804367619209</v>
+      </c>
+      <c r="H78">
+        <v>-0.06896144068309085</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.3759777341590579</v>
+        <v>0.07951478619078532</v>
       </c>
       <c r="C80">
-        <v>0.9046995504146262</v>
+        <v>-0.1172897486096104</v>
       </c>
       <c r="D80">
-        <v>0.0008396657635324759</v>
+        <v>0.006802176182058271</v>
       </c>
       <c r="E80">
-        <v>0.08155591790385162</v>
+        <v>-0.1063606912109257</v>
       </c>
       <c r="F80">
-        <v>0.009991244128777702</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9315423973965342</v>
+      </c>
+      <c r="G80">
+        <v>0.1223454228047881</v>
+      </c>
+      <c r="H80">
+        <v>-0.119093486201816</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1837113498021984</v>
+        <v>0.1269105154220656</v>
       </c>
       <c r="C81">
-        <v>-0.05370896863286414</v>
+        <v>-0.1373501183768623</v>
       </c>
       <c r="D81">
-        <v>-0.01071563288806619</v>
+        <v>-0.02405044719521001</v>
       </c>
       <c r="E81">
-        <v>-0.1524157137017705</v>
+        <v>-0.03966999211638512</v>
       </c>
       <c r="F81">
-        <v>-0.03541154903876654</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.005956339594638452</v>
+      </c>
+      <c r="G81">
+        <v>0.002752548150370212</v>
+      </c>
+      <c r="H81">
+        <v>0.1158560393367744</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.005304570721423544</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.00245680442231848</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0008600577865885172</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01293247082294087</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.002330440509263581</v>
+      </c>
+      <c r="G82">
+        <v>-0.0007144779608732925</v>
+      </c>
+      <c r="H82">
+        <v>-0.001689037297515979</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03896843155320857</v>
+        <v>0.02066905122981838</v>
       </c>
       <c r="C83">
-        <v>-0.0007184173076716694</v>
+        <v>-0.02276279042644143</v>
       </c>
       <c r="D83">
-        <v>-0.01938011862981941</v>
+        <v>0.003835646134048458</v>
       </c>
       <c r="E83">
-        <v>0.02941480913273145</v>
+        <v>0.01887435678601362</v>
       </c>
       <c r="F83">
-        <v>0.04871343031404384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.02709379129332165</v>
+      </c>
+      <c r="G83">
+        <v>-0.01065532196086931</v>
+      </c>
+      <c r="H83">
+        <v>-0.04169035049817505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2420525939763149</v>
+        <v>0.2038713110061119</v>
       </c>
       <c r="C85">
-        <v>-0.08072227588285781</v>
+        <v>-0.2177921006258331</v>
       </c>
       <c r="D85">
-        <v>-0.05021992205273597</v>
+        <v>-0.02926450740290341</v>
       </c>
       <c r="E85">
-        <v>-0.2240715363307409</v>
+        <v>-0.101575804564495</v>
       </c>
       <c r="F85">
-        <v>-0.07495649419973381</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05229216361447144</v>
+      </c>
+      <c r="G85">
+        <v>-0.006633629045618557</v>
+      </c>
+      <c r="H85">
+        <v>0.1393267663823988</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01059625300141762</v>
+        <v>0.00709218117365139</v>
       </c>
       <c r="C86">
-        <v>0.00370764760623195</v>
+        <v>-0.03338558406248512</v>
       </c>
       <c r="D86">
-        <v>-0.04282061941697987</v>
+        <v>0.007179371921635336</v>
       </c>
       <c r="E86">
-        <v>0.0008070833965029037</v>
+        <v>0.00292304100272547</v>
       </c>
       <c r="F86">
-        <v>0.08983004310344511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03006076090792297</v>
+      </c>
+      <c r="G86">
+        <v>0.001900646139191122</v>
+      </c>
+      <c r="H86">
+        <v>-0.04826115701797259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03031805518629884</v>
+        <v>0.00178907226150347</v>
       </c>
       <c r="C87">
-        <v>-0.003790380664987028</v>
+        <v>-0.03908600670638111</v>
       </c>
       <c r="D87">
-        <v>-0.03818186236015961</v>
+        <v>0.009232667235180726</v>
       </c>
       <c r="E87">
-        <v>0.01755625620008073</v>
+        <v>0.03578625428469055</v>
       </c>
       <c r="F87">
-        <v>0.0982260765375773</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02461888802458575</v>
+      </c>
+      <c r="G87">
+        <v>-0.02438329906481438</v>
+      </c>
+      <c r="H87">
+        <v>-0.07105328575261194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03812966591473804</v>
+        <v>0.04380325950247543</v>
       </c>
       <c r="C88">
-        <v>-0.0003753753464632747</v>
+        <v>-0.02329685179783789</v>
       </c>
       <c r="D88">
-        <v>0.01200544650385635</v>
+        <v>0.01785296676258168</v>
       </c>
       <c r="E88">
-        <v>-0.008901406924290103</v>
+        <v>-0.007485802031745131</v>
       </c>
       <c r="F88">
-        <v>-0.001255206383575202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02333648329042642</v>
+      </c>
+      <c r="G88">
+        <v>-0.008020826614226</v>
+      </c>
+      <c r="H88">
+        <v>0.01473784691557018</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1465861632010888</v>
+        <v>0.3092468065483813</v>
       </c>
       <c r="C89">
-        <v>-0.07411686189321752</v>
+        <v>0.3019311301583328</v>
       </c>
       <c r="D89">
-        <v>0.3583460079503337</v>
+        <v>-0.01684163911514538</v>
       </c>
       <c r="E89">
-        <v>0.1041144424217784</v>
+        <v>0.02590832651580283</v>
       </c>
       <c r="F89">
-        <v>0.0284615717577789</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01324164502303786</v>
+      </c>
+      <c r="G89">
+        <v>0.02907070772847022</v>
+      </c>
+      <c r="H89">
+        <v>0.02720733558052538</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09574121544053012</v>
+        <v>0.2539789172117779</v>
       </c>
       <c r="C90">
-        <v>-0.05478443488030053</v>
+        <v>0.2723795017189727</v>
       </c>
       <c r="D90">
-        <v>0.3200615818837578</v>
+        <v>-0.01578702709880053</v>
       </c>
       <c r="E90">
-        <v>0.1148621182232406</v>
+        <v>0.0401765780490915</v>
       </c>
       <c r="F90">
-        <v>-0.03381311475848751</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.008904740943109739</v>
+      </c>
+      <c r="G90">
+        <v>0.05375545193962947</v>
+      </c>
+      <c r="H90">
+        <v>0.05446955178184334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2736190895085306</v>
+        <v>0.1863156288926971</v>
       </c>
       <c r="C91">
-        <v>-0.1041405746328599</v>
+        <v>-0.1872802090880025</v>
       </c>
       <c r="D91">
-        <v>-0.06874949988324308</v>
+        <v>-0.03628733588986646</v>
       </c>
       <c r="E91">
-        <v>-0.2233208766128284</v>
+        <v>-0.07405375567354315</v>
       </c>
       <c r="F91">
-        <v>-0.1651334807556502</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.02305997338458768</v>
+      </c>
+      <c r="G91">
+        <v>0.03311921402749936</v>
+      </c>
+      <c r="H91">
+        <v>0.193703476337147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.185338051146642</v>
+        <v>0.2757984254183155</v>
       </c>
       <c r="C92">
-        <v>-0.08374233402912501</v>
+        <v>0.1941053215558526</v>
       </c>
       <c r="D92">
-        <v>0.3820915271489312</v>
+        <v>-0.06034574796518803</v>
       </c>
       <c r="E92">
-        <v>0.02172923759992064</v>
+        <v>0.03665581531111666</v>
       </c>
       <c r="F92">
-        <v>-0.08594975998054059</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04572888113535988</v>
+      </c>
+      <c r="G92">
+        <v>0.03018594578733912</v>
+      </c>
+      <c r="H92">
+        <v>0.1426383334871854</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1374889939977721</v>
+        <v>0.296313482142316</v>
       </c>
       <c r="C93">
-        <v>-0.08874960304281446</v>
+        <v>0.2560973228651263</v>
       </c>
       <c r="D93">
-        <v>0.3730895029811497</v>
+        <v>-0.02593487940366671</v>
       </c>
       <c r="E93">
-        <v>0.1681651939781221</v>
+        <v>0.04560575859345598</v>
       </c>
       <c r="F93">
-        <v>-0.05347464551702368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.003820092671863619</v>
+      </c>
+      <c r="G93">
+        <v>0.04408734362048452</v>
+      </c>
+      <c r="H93">
+        <v>-0.0004496741329497637</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2845223640358947</v>
+        <v>0.2360463831879739</v>
       </c>
       <c r="C94">
-        <v>-0.1281993457090439</v>
+        <v>-0.2315131227368995</v>
       </c>
       <c r="D94">
-        <v>-0.01091506289763999</v>
+        <v>-0.02720679650446943</v>
       </c>
       <c r="E94">
-        <v>-0.2919144353203204</v>
+        <v>-0.09594764504545326</v>
       </c>
       <c r="F94">
-        <v>-0.04256046866977982</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.08272706937042507</v>
+      </c>
+      <c r="G94">
+        <v>-0.04583515214237907</v>
+      </c>
+      <c r="H94">
+        <v>0.4529512464849657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06626667617729076</v>
+        <v>0.05416152668025646</v>
       </c>
       <c r="C95">
-        <v>-0.06778221725065477</v>
+        <v>-0.1026389868466882</v>
       </c>
       <c r="D95">
-        <v>-0.02163595604805972</v>
+        <v>-0.01439889290512956</v>
       </c>
       <c r="E95">
-        <v>-0.01567979464675721</v>
+        <v>0.02880345843102069</v>
       </c>
       <c r="F95">
-        <v>0.03874681977385808</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.05888412905502943</v>
+      </c>
+      <c r="G95">
+        <v>-0.01260745204050317</v>
+      </c>
+      <c r="H95">
+        <v>-0.03655145489432392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1716142314381683</v>
+        <v>0.1898977792516228</v>
       </c>
       <c r="C98">
-        <v>-0.0886810865872661</v>
+        <v>-0.07117632221981282</v>
       </c>
       <c r="D98">
-        <v>0.02549108166090788</v>
+        <v>-0.03050092725923523</v>
       </c>
       <c r="E98">
-        <v>0.1096147045572712</v>
+        <v>0.02170147817108868</v>
       </c>
       <c r="F98">
-        <v>0.1273198505163957</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06750377743219002</v>
+      </c>
+      <c r="G98">
+        <v>-0.0654540678612521</v>
+      </c>
+      <c r="H98">
+        <v>-0.306624464951867</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.009757025454318294</v>
+        <v>0.003416263899572753</v>
       </c>
       <c r="C101">
-        <v>0.009451275348714653</v>
+        <v>-0.02097769729263379</v>
       </c>
       <c r="D101">
-        <v>-0.03250888666075939</v>
+        <v>0.006810648532144568</v>
       </c>
       <c r="E101">
-        <v>0.03220341406793844</v>
+        <v>0.02866150822096575</v>
       </c>
       <c r="F101">
-        <v>0.1815019164545672</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03548824922406141</v>
+      </c>
+      <c r="G101">
+        <v>-0.02652288954386215</v>
+      </c>
+      <c r="H101">
+        <v>0.0001129507175817464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1184694456399835</v>
+        <v>0.1046500903022877</v>
       </c>
       <c r="C102">
-        <v>-0.03858554018867653</v>
+        <v>-0.1073867502256936</v>
       </c>
       <c r="D102">
-        <v>-0.02543056040187618</v>
+        <v>-0.007315043462579436</v>
       </c>
       <c r="E102">
-        <v>-0.1106597894916437</v>
+        <v>-0.05351194694598532</v>
       </c>
       <c r="F102">
-        <v>-0.06148473457210973</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.02018371905533064</v>
+      </c>
+      <c r="G102">
+        <v>-0.00429249648391376</v>
+      </c>
+      <c r="H102">
+        <v>0.07161910014107524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04460109477873719</v>
+        <v>0.01068776323328745</v>
       </c>
       <c r="C103">
-        <v>0.009419463593303052</v>
+        <v>-0.01311444599908077</v>
       </c>
       <c r="D103">
-        <v>-0.008114785846507194</v>
+        <v>-0.001003330384189371</v>
       </c>
       <c r="E103">
-        <v>-0.03664896393642797</v>
+        <v>-0.00255601302210147</v>
       </c>
       <c r="F103">
-        <v>0.01177474292360133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02215364571374084</v>
+      </c>
+      <c r="G103">
+        <v>0.0009559297190629295</v>
+      </c>
+      <c r="H103">
+        <v>0.01206520497453836</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.08821850446392383</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.02718139152306429</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9817528182615152</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04228423281985236</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.001454310180311344</v>
+      </c>
+      <c r="G104">
+        <v>-0.1064916373624078</v>
+      </c>
+      <c r="H104">
+        <v>0.06899224895036796</v>
       </c>
     </row>
   </sheetData>
